--- a/Результат.xlsx
+++ b/Результат.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Базовая станция</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Статус заказа</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>БС№4010108000003 "TAR_Janys_GU21L821", Жамбылская обл., Жамбылский р-н, с.Костобе, ул.Турсынбаева,</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +518,11 @@
           <t>БС№4010108000014 "TAR_Brave", Жамбылская область, г. Шу, ул. Ожет, 41А</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -535,6 +550,11 @@
           <t>БС№4010108000014 "TAR_Brave", Жамбылская область, г. Шу, ул. Ожет, 41А</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,6 +582,11 @@
           <t>БС№4010108000021 "TAR_Oxford", Жамбылская область, г.Тараз, ул.Сатпаева, 5-Г, кад№06-097-016-656</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,6 +614,11 @@
           <t>БС№4010108000021 "TAR_Oxford", Жамбылская область, г.Тараз, ул.Сатпаева, 5-Г, кад№06-097-016-656</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -616,6 +646,11 @@
           <t>БС№40114100446 "OKT_Razdelnoe",</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -643,6 +678,11 @@
           <t>БС№40102100522 "NUR_Balet", Астана г, ул. Улы Дала проспект, корп. 9, Казахская национальная академия хореографии</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -670,6 +710,11 @@
           <t>БС№40102100126 "NUR_Saryarka", Астана г, пр. Туран, д. 24</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -697,6 +742,11 @@
           <t>БС№40102100126 "NUR_Saryarka", Астана г, пр. Туран, д. 24</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -724,6 +774,11 @@
           <t>БС№40102100126 "NUR_Saryarka", Астана г, пр. Туран, д. 24</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -751,6 +806,11 @@
           <t>БС "KAR_Asakarly", Карагандинская область, Осакаровский р-н, п. Осакаровка</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -778,6 +838,11 @@
           <t>БС "PTR_Hromik", Северо-Казахстанская область, Петропавловск г., район Хромзавода, аренда столба СК-22</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -805,6 +870,11 @@
           <t>БС "PTR_Hromik", Северо-Казахстанская область, Петропавловск г., район Хромзавода, аренда столба СК-22</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -832,6 +902,11 @@
           <t>БС "PTR_Hromik", Северо-Казахстанская область, Петропавловск г., район Хромзавода, аренда столба СК-22</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -859,6 +934,11 @@
           <t>БС№40102100509 "NUR_Trubka", Астана г, труба на территории ул. 85-я, 13</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -886,6 +966,11 @@
           <t>БС№40102100509 "NUR_Trubka", Астана г, труба на территории ул. 85-я, 13</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -913,6 +998,11 @@
           <t>БС№40102100509 "NUR_Trubka", Астана г, труба на территории ул. 85-я, 13</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -940,6 +1030,11 @@
           <t>БС "KOK_Kaztele", г.Кокшетау, Казтелерадио</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -967,6 +1062,11 @@
           <t>БС№40117100012 "BAI_Luna",</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -994,6 +1094,11 @@
           <t>БС№40117100012 "BAI_Luna",</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1021,6 +1126,11 @@
           <t>БС№ 4010113000012 "SRG_Akkurgan", Туркестанская область, Келеский р-он, с.Аккурган</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1048,6 +1158,11 @@
           <t>БС№ 4010113000012 "SRG_Akkurgan", Туркестанская область, Келеский р-он, с.Аккурган</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1075,6 +1190,11 @@
           <t>БС№ 4010113000015 "SRG_Dimitrovo", Туркестанская область, Келеский р-он, с.Керегетас</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1102,6 +1222,11 @@
           <t>БС№ 4010113000015 "SRG_Dimitrovo", Туркестанская область, Келеский р-он, с.Керегетас</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1129,6 +1254,11 @@
           <t>БС№ 4010113000013 "SRG_Gena", Туркестанская область, Келеский р-он, с.Амангельды</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1156,6 +1286,11 @@
           <t>БС№ 4010113000013 "SRG_Gena", Туркестанская область, Келеский р-он, с.Амангельды</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1183,6 +1318,11 @@
           <t>БС№ 4010113000011 "SRG_Mahan", Туркестанская область, Келеский р-он, с.Первое Мая</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1210,6 +1350,11 @@
           <t>БС№ 4010113000011 "SRG_Mahan", Туркестанская область, Келеский р-он, с.Первое Мая</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1237,6 +1382,11 @@
           <t>БС№ 4010113000040 "TUR_Qazan", Туркестанская область, Отырарский р-он, с.Шаульдер</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1264,6 +1414,11 @@
           <t>БС№ 4010113000040 "TUR_Qazan", Туркестанская область, Отырарский р-он, с.Шаульдер</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1291,6 +1446,11 @@
           <t>БС№40104101081 "ALM_Uitas_U921L81821", Алматинская область, Енбекшиказахский р-н, с.Кокпек</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1318,6 +1478,11 @@
           <t>БС№4010105000039 "ALM_UitasRRL", Алматинская область, Енбекшиказахский р-н, поворот на п.Кокпек</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1345,6 +1510,11 @@
           <t>БС№4010105000039 "ALM_UitasRRL", Алматинская область, Енбекшиказахский р-н, поворот на п.Кокпек</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1372,6 +1542,11 @@
           <t>БС№40104101058 "ALM_Dala", Алматинская область, р-н Талгарский, Гульдалиинский с.о, село Гульдала, ул Айтеке</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1399,6 +1574,11 @@
           <t>БС№40104101058 "ALM_Dala", Алматинская область, р-н Талгарский, Гульдалиинский с.о, село Гульдала, ул Айтеке би</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1426,6 +1606,11 @@
           <t>БС№40104101058 "ALM_Dala", Алматинская область, р-н Талгарский, Гульдалиинский с.о, село Гульдала, ул</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1453,6 +1638,11 @@
           <t>БС№40104101081 "ALM_Uitas_U921L81821", Алматинская область, Енбекшиказахский р-н, с.Кокпек</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1480,6 +1670,11 @@
           <t>БС№40104101081 "ALM_Uitas_U921L81821", Алматинская область, Енбекшиказахский р-н, с.Кокпек</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1507,6 +1702,11 @@
           <t>БС№40104101040 "TLD_Akbalyk_GU9L8", Алматинская область, Саркандский р-н, ст.Акбалык</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1534,6 +1734,11 @@
           <t>БС "KZL_Yureke", Кызылординская область, Кызылорда г., ул.Жиенбай жырау, 17</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1561,6 +1766,11 @@
           <t>БС "PTR_It", Северо-Казахстанская область, г. Петропавловск, перекрёсток ул. Советская-Сейфулина, аренда столба</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1588,6 +1798,11 @@
           <t>БС№4010103000035 "NUR_Aktasty_GU9L8", Акмолинская область, Aршалынский район, с.Актасты</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1615,6 +1830,11 @@
           <t>БС№4010103000035 "NUR_Aktasty_GU9L8", Акмолинская область, Aршалынский район, с.Актасты</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1642,6 +1862,11 @@
           <t>БС№4010103000034 "NUR_Saryoba_GU9L8", Акмолинская область, Aршалынский район, ст.Сарыоба</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1669,6 +1894,11 @@
           <t>БС№4010103000034 "NUR_Saryoba_GU9L8", Акмолинская область, Aршалынский район, ст.Сарыоба</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1696,6 +1926,11 @@
           <t>БС "PTR_Pilorama", Северо-Казахстанская область, г. Петропавловск, ул. Коммунальная, 24</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1723,6 +1958,11 @@
           <t>БС "PTR_Pilorama", Северо-Казахстанская область, г. Петропавловск, ул. Коммунальная, 24</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1750,6 +1990,11 @@
           <t>БС№40107100812 "OSK_Flint_GU21L818212,</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1777,6 +2022,11 @@
           <t>РРЛ пролет "SEM_Taymas-SEM_Sever", Абайская</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>согласовано</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1802,6 +2052,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>БС№40107100639 "ZYR_Maleevka", Восточно-</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>согласовано</t>
         </is>
       </c>
     </row>
